--- a/exercise_OECD_data/2-Final_Data/L_2016.xlsx
+++ b/exercise_OECD_data/2-Final_Data/L_2016.xlsx
@@ -877,7 +877,7 @@
         <v>21.3550190740463</v>
       </c>
       <c r="G10">
-        <v>65.1215642784671</v>
+        <v>65.12156427846711</v>
       </c>
       <c r="H10">
         <v>23.2538955819505</v>
@@ -1097,7 +1097,7 @@
         <v>107.573638910135</v>
       </c>
       <c r="K14">
-        <v>80.22474469288269</v>
+        <v>80.2247446928827</v>
       </c>
       <c r="L14">
         <v>94.1913347505652</v>
@@ -1544,7 +1544,7 @@
         <v>65.1087674751621</v>
       </c>
       <c r="D23">
-        <v>9.272178390786999</v>
+        <v>9.272178390787</v>
       </c>
       <c r="E23">
         <v>49.3826148611499</v>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>655.0779139577299</v>
+        <v>655.07791395773</v>
       </c>
       <c r="C24">
         <v>68.1574197981234</v>
@@ -1914,7 +1914,7 @@
         <v>9.482251865692019</v>
       </c>
       <c r="F30">
-        <v>0.9554343529632709</v>
+        <v>0.955434352963271</v>
       </c>
       <c r="G30">
         <v>5.07467093782314</v>
@@ -2400,7 +2400,7 @@
         <v>42.2365779481584</v>
       </c>
       <c r="L39">
-        <v>77.0224766207515</v>
+        <v>77.02247662075151</v>
       </c>
       <c r="M39">
         <v>66.52615163262431</v>
@@ -2443,7 +2443,7 @@
         <v>3.1886071190499</v>
       </c>
       <c r="I40">
-        <v>0.6641149504677279</v>
+        <v>0.664114950467728</v>
       </c>
       <c r="J40">
         <v>10.5685373529584</v>
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>919.5583822899659</v>
+        <v>919.558382289966</v>
       </c>
       <c r="C41">
         <v>22.2308493812752</v>
@@ -3293,7 +3293,7 @@
         <v>1210.92022901043</v>
       </c>
       <c r="O56">
-        <v>67750.69911296249</v>
+        <v>67750.6991129625</v>
       </c>
       <c r="P56">
         <v>13287.6360003946</v>
@@ -3816,7 +3816,7 @@
         <v>24170.3110920682</v>
       </c>
       <c r="P66">
-        <v>861.8537883562969</v>
+        <v>861.853788356297</v>
       </c>
     </row>
     <row r="67">
@@ -3957,7 +3957,7 @@
         <v>108.847157474907</v>
       </c>
       <c r="K69">
-        <v>70.46710898298529</v>
+        <v>70.4671089829853</v>
       </c>
       <c r="L69">
         <v>154.573013253</v>
@@ -4043,7 +4043,7 @@
         <v>16143.7490293805</v>
       </c>
       <c r="E71">
-        <v>8491.254377936149</v>
+        <v>8491.25437793615</v>
       </c>
       <c r="F71">
         <v>2019.26397445861</v>
@@ -4162,7 +4162,7 @@
         <v>194.638287896253</v>
       </c>
       <c r="J73">
-        <v>699.5547064713789</v>
+        <v>699.554706471379</v>
       </c>
       <c r="K73">
         <v>476.74643039507</v>
@@ -4743,7 +4743,7 @@
         <v>58.95280723804</v>
       </c>
       <c r="M84">
-        <v>86.01142556893799</v>
+        <v>86.011425568938</v>
       </c>
       <c r="N84">
         <v>31.5212326658892</v>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>725.048516894309</v>
+        <v>725.0485168943091</v>
       </c>
       <c r="C85">
         <v>17.6138648900913</v>
@@ -4948,7 +4948,7 @@
         <v>258.881267106642</v>
       </c>
       <c r="L88">
-        <v>742.4300848476699</v>
+        <v>742.43008484767</v>
       </c>
       <c r="M88">
         <v>136.490835637336</v>

--- a/exercise_OECD_data/2-Final_Data/L_2016.xlsx
+++ b/exercise_OECD_data/2-Final_Data/L_2016.xlsx
@@ -3049,46 +3049,46 @@
         <v>6670.97736928025</v>
       </c>
       <c r="C52">
-        <v>273.544663858501</v>
+        <v>271.625397808426</v>
       </c>
       <c r="D52">
-        <v>38.8468272015798</v>
+        <v>38.5742669711974</v>
       </c>
       <c r="E52">
-        <v>118.35875706313</v>
+        <v>117.528318841612</v>
       </c>
       <c r="F52">
-        <v>255.033782402822</v>
+        <v>266.193114558907</v>
       </c>
       <c r="G52">
-        <v>24.1263768508224</v>
+        <v>56.8743764992568</v>
       </c>
       <c r="H52">
-        <v>34.5551540132306</v>
+        <v>34.3127053651114</v>
       </c>
       <c r="I52">
-        <v>34.8583885016244</v>
+        <v>34.6138122753226</v>
       </c>
       <c r="J52">
-        <v>136.847009079378</v>
+        <v>135.886852098519</v>
       </c>
       <c r="K52">
-        <v>69.413542514855</v>
+        <v>68.926517640434</v>
       </c>
       <c r="L52">
-        <v>54.2495551512231</v>
+        <v>53.8689250633802</v>
       </c>
       <c r="M52">
-        <v>92.4016585622291</v>
+        <v>91.75334262088479</v>
       </c>
       <c r="N52">
-        <v>108.314680371072</v>
+        <v>107.55471420749</v>
       </c>
       <c r="O52">
-        <v>10806.6254384984</v>
+        <v>10771.8233236267</v>
       </c>
       <c r="P52">
-        <v>336.336832395445</v>
+        <v>333.976998887084</v>
       </c>
     </row>
     <row r="53">
@@ -3101,46 +3101,46 @@
         <v>2863.29564967444</v>
       </c>
       <c r="C53">
-        <v>91.49705501851879</v>
+        <v>90.5828212723319</v>
       </c>
       <c r="D53">
-        <v>22.5796499079723</v>
+        <v>22.354035237437</v>
       </c>
       <c r="E53">
-        <v>69.0285801470211</v>
+        <v>68.3388502162708</v>
       </c>
       <c r="F53">
-        <v>7.12631983801586</v>
+        <v>8.397897038978041</v>
       </c>
       <c r="G53">
-        <v>16.209320317983</v>
+        <v>35.3416086397883</v>
       </c>
       <c r="H53">
-        <v>33.3413934387045</v>
+        <v>33.0082479946201</v>
       </c>
       <c r="I53">
-        <v>35.6538341973742</v>
+        <v>35.297582967238</v>
       </c>
       <c r="J53">
-        <v>122.815062793387</v>
+        <v>121.587901165911</v>
       </c>
       <c r="K53">
-        <v>88.63985658112399</v>
+        <v>87.75417181097239</v>
       </c>
       <c r="L53">
-        <v>72.2415387011343</v>
+        <v>71.5197050580332</v>
       </c>
       <c r="M53">
-        <v>42.3354538894921</v>
+        <v>41.9124402679271</v>
       </c>
       <c r="N53">
-        <v>50.9626367199138</v>
+        <v>50.4534207426938</v>
       </c>
       <c r="O53">
-        <v>3525.38264161389</v>
+        <v>3513.35873369879</v>
       </c>
       <c r="P53">
-        <v>209.576061258092</v>
+        <v>207.481988311632</v>
       </c>
     </row>
     <row r="54">
@@ -3153,46 +3153,46 @@
         <v>4189.37352325385</v>
       </c>
       <c r="C54">
-        <v>112.90590556184</v>
+        <v>110.914016403242</v>
       </c>
       <c r="D54">
-        <v>28.8194695919403</v>
+        <v>28.3110356995669</v>
       </c>
       <c r="E54">
-        <v>47.9138506796045</v>
+        <v>47.0685531795269</v>
       </c>
       <c r="F54">
-        <v>2.84636736710522</v>
+        <v>7.92242974308869</v>
       </c>
       <c r="G54">
-        <v>28.5822723113482</v>
+        <v>79.1077911111356</v>
       </c>
       <c r="H54">
-        <v>26.4474967860193</v>
+        <v>25.9809093045409</v>
       </c>
       <c r="I54">
-        <v>32.1402315202298</v>
+        <v>31.5732126526035</v>
       </c>
       <c r="J54">
-        <v>102.1134292949</v>
+        <v>100.311941305873</v>
       </c>
       <c r="K54">
-        <v>38.9003540171046</v>
+        <v>38.2140728784278</v>
       </c>
       <c r="L54">
-        <v>31.9030342396377</v>
+        <v>31.3402000131009</v>
       </c>
       <c r="M54">
-        <v>49.4556330034532</v>
+        <v>48.5831353362939</v>
       </c>
       <c r="N54">
-        <v>26.8032927069075</v>
+        <v>26.3304282637948</v>
       </c>
       <c r="O54">
-        <v>4169.09800232707</v>
+        <v>4123.50817495791</v>
       </c>
       <c r="P54">
-        <v>70.091796414966</v>
+        <v>68.8552349730208</v>
       </c>
     </row>
     <row r="55">
@@ -3205,46 +3205,46 @@
         <v>2657.46446337206</v>
       </c>
       <c r="C55">
-        <v>108.513508729112</v>
+        <v>107.025000776119</v>
       </c>
       <c r="D55">
-        <v>149.736674331959</v>
+        <v>147.68269752107</v>
       </c>
       <c r="E55">
-        <v>40.6247798921239</v>
+        <v>40.0675192462723</v>
       </c>
       <c r="F55">
-        <v>25.2069980642499</v>
+        <v>27.581576539839</v>
       </c>
       <c r="G55">
-        <v>8.470897717437101</v>
+        <v>26.8807407601573</v>
       </c>
       <c r="H55">
-        <v>32.8270660992513</v>
+        <v>32.376768716608</v>
       </c>
       <c r="I55">
-        <v>23.9915270893417</v>
+        <v>23.662429087672</v>
       </c>
       <c r="J55">
-        <v>70.7778098465771</v>
+        <v>69.8069322656573</v>
       </c>
       <c r="K55">
-        <v>34.3604294829816</v>
+        <v>33.8890985569737</v>
       </c>
       <c r="L55">
-        <v>31.8640390960548</v>
+        <v>31.4269518046711</v>
       </c>
       <c r="M55">
-        <v>21.7008317904763</v>
+        <v>21.4031558505404</v>
       </c>
       <c r="N55">
-        <v>41.6252060022406</v>
+        <v>41.0542222518767</v>
       </c>
       <c r="O55">
-        <v>1857.88478425409</v>
+        <v>1853.00980147824</v>
       </c>
       <c r="P55">
-        <v>603.78988167401</v>
+        <v>595.507539214217</v>
       </c>
     </row>
     <row r="56">
@@ -3257,46 +3257,46 @@
         <v>52307.9434382191</v>
       </c>
       <c r="C56">
-        <v>2236.35779779543</v>
+        <v>2225.81787559208</v>
       </c>
       <c r="D56">
-        <v>2785.21953691175</v>
+        <v>2772.09283720956</v>
       </c>
       <c r="E56">
-        <v>775.81522259254</v>
+        <v>772.158816583465</v>
       </c>
       <c r="F56">
-        <v>287.157215436911</v>
+        <v>325.563473171662</v>
       </c>
       <c r="G56">
-        <v>94.94531300980471</v>
+        <v>489.036239430919</v>
       </c>
       <c r="H56">
-        <v>450.518697966443</v>
+        <v>448.395409809064</v>
       </c>
       <c r="I56">
-        <v>647.622874875853</v>
+        <v>644.570637561666</v>
       </c>
       <c r="J56">
-        <v>985.706283966717</v>
+        <v>981.060664397877</v>
       </c>
       <c r="K56">
-        <v>438.394900201617</v>
+        <v>436.328751329095</v>
       </c>
       <c r="L56">
-        <v>451.647175046372</v>
+        <v>449.518568392711</v>
       </c>
       <c r="M56">
-        <v>746.59589568644</v>
+        <v>743.077199945698</v>
       </c>
       <c r="N56">
-        <v>1210.92022901043</v>
+        <v>1205.21317935101</v>
       </c>
       <c r="O56">
-        <v>67750.6991129625</v>
+        <v>67431.3910404451</v>
       </c>
       <c r="P56">
-        <v>13287.6360003946</v>
+        <v>13225.0115626375</v>
       </c>
     </row>
     <row r="57">
@@ -3309,46 +3309,46 @@
         <v>10135.8474696203</v>
       </c>
       <c r="C57">
-        <v>317.83338073481</v>
+        <v>316.12978209668</v>
       </c>
       <c r="D57">
-        <v>61.4574046535194</v>
+        <v>61.1279906988596</v>
       </c>
       <c r="E57">
-        <v>271.084678031395</v>
+        <v>269.631654163214</v>
       </c>
       <c r="F57">
-        <v>313.43916031064</v>
+        <v>326.722997940784</v>
       </c>
       <c r="G57">
-        <v>53.3965745174722</v>
+        <v>97.057897506001</v>
       </c>
       <c r="H57">
-        <v>125.962321678156</v>
+        <v>125.287158990176</v>
       </c>
       <c r="I57">
-        <v>69.6827182158938</v>
+        <v>69.3092162773015</v>
       </c>
       <c r="J57">
-        <v>420.531577801818</v>
+        <v>418.27751304129</v>
       </c>
       <c r="K57">
-        <v>167.166562219127</v>
+        <v>166.270543282793</v>
       </c>
       <c r="L57">
-        <v>177.104102559727</v>
+        <v>176.154818040805</v>
       </c>
       <c r="M57">
-        <v>209.885420977527</v>
+        <v>208.760427383356</v>
       </c>
       <c r="N57">
-        <v>356.55666292868</v>
+        <v>354.645506070401</v>
       </c>
       <c r="O57">
-        <v>16287.2893711759</v>
+        <v>16244.1772884777</v>
       </c>
       <c r="P57">
-        <v>403.515538899069</v>
+        <v>401.352680734381</v>
       </c>
     </row>
     <row r="58">
@@ -3361,46 +3361,46 @@
         <v>340971.741146342</v>
       </c>
       <c r="C58">
-        <v>16004.3721934758</v>
+        <v>15831.6394372239</v>
       </c>
       <c r="D58">
-        <v>31962.3718019764</v>
+        <v>31617.4067817331</v>
       </c>
       <c r="E58">
-        <v>14905.8274363412</v>
+        <v>14744.9511066627</v>
       </c>
       <c r="F58">
-        <v>18951.9850911865</v>
+        <v>19645.1430814216</v>
       </c>
       <c r="G58">
-        <v>2743.00493514412</v>
+        <v>10050.4500630591</v>
       </c>
       <c r="H58">
-        <v>9250.05811441701</v>
+        <v>9150.22364329387</v>
       </c>
       <c r="I58">
-        <v>11333.6261270055</v>
+        <v>11211.3040230466</v>
       </c>
       <c r="J58">
-        <v>15330.1220910252</v>
+        <v>15164.666413636</v>
       </c>
       <c r="K58">
-        <v>14803.5185736304</v>
+        <v>14643.7464479552</v>
       </c>
       <c r="L58">
-        <v>24408.954372985</v>
+        <v>24145.5122388542</v>
       </c>
       <c r="M58">
-        <v>9082.642724267131</v>
+        <v>8984.615142000979</v>
       </c>
       <c r="N58">
-        <v>6154.49988828751</v>
+        <v>6088.07530654169</v>
       </c>
       <c r="O58">
-        <v>406727.669207477</v>
+        <v>402532.540821299</v>
       </c>
       <c r="P58">
-        <v>199356.272931717</v>
+        <v>197204.650982207</v>
       </c>
     </row>
     <row r="59">
@@ -3413,46 +3413,46 @@
         <v>344.564987482206</v>
       </c>
       <c r="C59">
-        <v>19.7822865153666</v>
+        <v>19.6260049076105</v>
       </c>
       <c r="D59">
-        <v>1.71635222897187</v>
+        <v>1.70279291237766</v>
       </c>
       <c r="E59">
-        <v>5.96299691921157</v>
+        <v>5.91588877805433</v>
       </c>
       <c r="F59">
-        <v>0.760857173667945</v>
+        <v>0.8250646070283481</v>
       </c>
       <c r="G59">
-        <v>2.30026587387983</v>
+        <v>3.44069495696928</v>
       </c>
       <c r="H59">
-        <v>1.59249175883988</v>
+        <v>1.57991094962875</v>
       </c>
       <c r="I59">
-        <v>3.59195363382774</v>
+        <v>3.56357691971819</v>
       </c>
       <c r="J59">
-        <v>6.9184919745155</v>
+        <v>6.86383534783158</v>
       </c>
       <c r="K59">
-        <v>0.813940232295941</v>
+        <v>0.807510040921362</v>
       </c>
       <c r="L59">
-        <v>0.743162820791946</v>
+        <v>0.737291776493418</v>
       </c>
       <c r="M59">
-        <v>0.40697011614797</v>
+        <v>0.403755020460681</v>
       </c>
       <c r="N59">
-        <v>3.18498351767977</v>
+        <v>3.1598218992575</v>
       </c>
       <c r="O59">
-        <v>488.187195848804</v>
+        <v>487.542964489326</v>
       </c>
       <c r="P59">
-        <v>26.2230309622301</v>
+        <v>26.0158669705535</v>
       </c>
     </row>
     <row r="60">
@@ -3465,46 +3465,46 @@
         <v>3508.45663138005</v>
       </c>
       <c r="C60">
-        <v>141.276492015504</v>
+        <v>139.089646685505</v>
       </c>
       <c r="D60">
-        <v>67.3894732753609</v>
+        <v>66.3463389731084</v>
       </c>
       <c r="E60">
-        <v>117.959779384072</v>
+        <v>116.133857824204</v>
       </c>
       <c r="F60">
-        <v>35.9395483520756</v>
+        <v>38.0819545260778</v>
       </c>
       <c r="G60">
-        <v>13.0966150774513</v>
+        <v>46.4113409053599</v>
       </c>
       <c r="H60">
-        <v>101.106770834794</v>
+        <v>99.541720156674</v>
       </c>
       <c r="I60">
-        <v>67.1525835969574</v>
+        <v>66.1131161544885</v>
       </c>
       <c r="J60">
-        <v>272.784104912082</v>
+        <v>268.561628565066</v>
       </c>
       <c r="K60">
-        <v>149.127692785449</v>
+        <v>146.819317245479</v>
       </c>
       <c r="L60">
-        <v>174.982509114061</v>
+        <v>172.273922020565</v>
       </c>
       <c r="M60">
-        <v>213.031503650015</v>
+        <v>209.733949030323</v>
       </c>
       <c r="N60">
-        <v>87.07387750460499</v>
+        <v>85.7260446155714</v>
       </c>
       <c r="O60">
-        <v>3663.75832711046</v>
+        <v>3652.76910277037</v>
       </c>
       <c r="P60">
-        <v>188.812354148475</v>
+        <v>185.889692288565</v>
       </c>
     </row>
     <row r="61">
@@ -3517,46 +3517,46 @@
         <v>27525.6859705597</v>
       </c>
       <c r="C61">
-        <v>987.095571854342</v>
+        <v>972.591835705035</v>
       </c>
       <c r="D61">
-        <v>168.24282670225</v>
+        <v>165.770776743685</v>
       </c>
       <c r="E61">
-        <v>489.820887867311</v>
+        <v>482.623780393006</v>
       </c>
       <c r="F61">
-        <v>64.9545090432738</v>
+        <v>81.8362062405531</v>
       </c>
       <c r="G61">
-        <v>135.233158172062</v>
+        <v>496.263148099764</v>
       </c>
       <c r="H61">
-        <v>451.487079251608</v>
+        <v>444.853223666596</v>
       </c>
       <c r="I61">
-        <v>259.818036173095</v>
+        <v>256.000440034551</v>
       </c>
       <c r="J61">
-        <v>1244.78395199323</v>
+        <v>1226.49391147701</v>
       </c>
       <c r="K61">
-        <v>1202.19083130912</v>
+        <v>1184.52662622544</v>
       </c>
       <c r="L61">
-        <v>914.687266691348</v>
+        <v>901.2474507773731</v>
       </c>
       <c r="M61">
-        <v>1041.40180072659</v>
+        <v>1026.10012440078</v>
       </c>
       <c r="N61">
-        <v>434.449830977963</v>
+        <v>428.06630956597</v>
       </c>
       <c r="O61">
-        <v>33756.1129701774</v>
+        <v>33494.0903592746</v>
       </c>
       <c r="P61">
-        <v>693.203039133955</v>
+        <v>683.017567469232</v>
       </c>
     </row>
     <row r="62">
@@ -3569,46 +3569,46 @@
         <v>1759.6813759319</v>
       </c>
       <c r="C62">
-        <v>55.3306283519422</v>
+        <v>54.8628059754077</v>
       </c>
       <c r="D62">
-        <v>5.42457140705316</v>
+        <v>5.37870646817723</v>
       </c>
       <c r="E62">
-        <v>21.6982856282126</v>
+        <v>21.5148258727089</v>
       </c>
       <c r="F62">
-        <v>4.33965712564252</v>
+        <v>5.37870646817723</v>
       </c>
       <c r="G62">
-        <v>22.7831999096233</v>
+        <v>34.4237213963343</v>
       </c>
       <c r="H62">
-        <v>14.1038856583382</v>
+        <v>13.9846368172608</v>
       </c>
       <c r="I62">
-        <v>13.0189713769276</v>
+        <v>12.9088955236253</v>
       </c>
       <c r="J62">
-        <v>42.3116569750146</v>
+        <v>41.9539104517824</v>
       </c>
       <c r="K62">
-        <v>55.3306283519422</v>
+        <v>54.8628059754077</v>
       </c>
       <c r="L62">
-        <v>27.1228570352658</v>
+        <v>26.8935323408861</v>
       </c>
       <c r="M62">
-        <v>5.42457140705316</v>
+        <v>5.37870646817723</v>
       </c>
       <c r="N62">
-        <v>19.5284570653914</v>
+        <v>19.363343285438</v>
       </c>
       <c r="O62">
-        <v>2434.54764748546</v>
+        <v>2424.72087585429</v>
       </c>
       <c r="P62">
-        <v>78.1138282615655</v>
+        <v>77.4533731417521</v>
       </c>
     </row>
     <row r="63">
@@ -3621,46 +3621,46 @@
         <v>14076.8218838304</v>
       </c>
       <c r="C63">
-        <v>525.761345046301</v>
+        <v>519.5634077559261</v>
       </c>
       <c r="D63">
-        <v>192.758992556676</v>
+        <v>190.486653292334</v>
       </c>
       <c r="E63">
-        <v>199.656206979608</v>
+        <v>197.302559907314</v>
       </c>
       <c r="F63">
-        <v>37.5111661598051</v>
+        <v>47.950500922929</v>
       </c>
       <c r="G63">
-        <v>49.8535498639991</v>
+        <v>154.852615199983</v>
       </c>
       <c r="H63">
-        <v>106.725317912736</v>
+        <v>105.467186568637</v>
       </c>
       <c r="I63">
-        <v>112.896509764833</v>
+        <v>111.565629329408</v>
       </c>
       <c r="J63">
-        <v>367.125413318867</v>
+        <v>362.797555611388</v>
       </c>
       <c r="K63">
-        <v>139.517337362114</v>
+        <v>137.87263731705</v>
       </c>
       <c r="L63">
-        <v>118.583686569707</v>
+        <v>117.185762854041</v>
       </c>
       <c r="M63">
-        <v>230.512166240093</v>
+        <v>227.794773711171</v>
       </c>
       <c r="N63">
-        <v>141.09038626559</v>
+        <v>139.427142334502</v>
       </c>
       <c r="O63">
-        <v>16588.7687172457</v>
+        <v>16508.8432853356</v>
       </c>
       <c r="P63">
-        <v>877.882291901247</v>
+        <v>867.533377047006</v>
       </c>
     </row>
     <row r="64">
@@ -3673,46 +3673,46 @@
         <v>387.456012704927</v>
       </c>
       <c r="C64">
-        <v>19.7607214727249</v>
+        <v>19.4899303082117</v>
       </c>
       <c r="D64">
-        <v>15.3562233131416</v>
+        <v>15.1457892154175</v>
       </c>
       <c r="E64">
-        <v>24.5223411047068</v>
+        <v>24.1862990571783</v>
       </c>
       <c r="F64">
-        <v>4.7616196319819</v>
+        <v>7.16196234217416</v>
       </c>
       <c r="G64">
-        <v>0.238080981599095</v>
+        <v>3.8745042178975</v>
       </c>
       <c r="H64">
-        <v>3.57121472398642</v>
+        <v>3.522276561725</v>
       </c>
       <c r="I64">
-        <v>4.88066012278145</v>
+        <v>4.81377796769083</v>
       </c>
       <c r="J64">
-        <v>19.7607214727249</v>
+        <v>19.4899303082116</v>
       </c>
       <c r="K64">
-        <v>2.85697177918914</v>
+        <v>2.81782124938</v>
       </c>
       <c r="L64">
-        <v>12.9754134971507</v>
+        <v>12.7976048409342</v>
       </c>
       <c r="M64">
-        <v>5.83298404917783</v>
+        <v>5.75305171748416</v>
       </c>
       <c r="N64">
-        <v>13.8086969327475</v>
+        <v>13.6194693720033</v>
       </c>
       <c r="O64">
-        <v>504.136478536083</v>
+        <v>500.16327176495</v>
       </c>
       <c r="P64">
-        <v>27.2602723930964</v>
+        <v>26.8867110878341</v>
       </c>
     </row>
     <row r="65">
@@ -3725,46 +3725,46 @@
         <v>1781.29276296904</v>
       </c>
       <c r="C65">
-        <v>41.4994718094156</v>
+        <v>41.0462487079832</v>
       </c>
       <c r="D65">
-        <v>12.0447015805692</v>
+        <v>11.9131592556152</v>
       </c>
       <c r="E65">
-        <v>56.9385892899634</v>
+        <v>56.3167528447264</v>
       </c>
       <c r="F65">
-        <v>7.11732366124542</v>
+        <v>10.0720346433838</v>
       </c>
       <c r="G65">
-        <v>5.03687520641984</v>
+        <v>18.4112461223144</v>
       </c>
       <c r="H65">
-        <v>15.3296201934517</v>
+        <v>15.1622026889648</v>
       </c>
       <c r="I65">
-        <v>16.3150957773164</v>
+        <v>16.1369157189697</v>
       </c>
       <c r="J65">
-        <v>63.070437367344</v>
+        <v>62.3816339203123</v>
       </c>
       <c r="K65">
-        <v>50.5877466383905</v>
+        <v>50.0352688735838</v>
       </c>
       <c r="L65">
-        <v>46.0983578674511</v>
+        <v>45.5949095146727</v>
       </c>
       <c r="M65">
-        <v>15.4391174805478</v>
+        <v>15.2705041367431</v>
       </c>
       <c r="N65">
-        <v>15.3296201934517</v>
+        <v>15.1622026889648</v>
       </c>
       <c r="O65">
-        <v>2040.8104368968</v>
+        <v>2029.46082991794</v>
       </c>
       <c r="P65">
-        <v>123.29394527019</v>
+        <v>121.947430198388</v>
       </c>
     </row>
     <row r="66">
@@ -3777,46 +3777,46 @@
         <v>22250.132210664</v>
       </c>
       <c r="C66">
-        <v>685.642528875848</v>
+        <v>678.46084832508</v>
       </c>
       <c r="D66">
-        <v>127.640207187761</v>
+        <v>126.303255124768</v>
       </c>
       <c r="E66">
-        <v>225.91187112878</v>
+        <v>223.545584291624</v>
       </c>
       <c r="F66">
-        <v>21.4616277572341</v>
+        <v>26.8254701149949</v>
       </c>
       <c r="G66">
-        <v>51.9597303596195</v>
+        <v>185.542834962048</v>
       </c>
       <c r="H66">
-        <v>181.859056258668</v>
+        <v>179.954195354758</v>
       </c>
       <c r="I66">
-        <v>118.60373234261</v>
+        <v>117.361431753103</v>
       </c>
       <c r="J66">
-        <v>447.305504834985</v>
+        <v>442.620256897416</v>
       </c>
       <c r="K66">
-        <v>194.284209170751</v>
+        <v>192.249202490797</v>
       </c>
       <c r="L66">
-        <v>178.470378191736</v>
+        <v>176.601011590383</v>
       </c>
       <c r="M66">
-        <v>228.170989840068</v>
+        <v>225.781040134541</v>
       </c>
       <c r="N66">
-        <v>144.583597522419</v>
+        <v>143.06917394664</v>
       </c>
       <c r="O66">
-        <v>24170.3110920682</v>
+        <v>24066.9176048363</v>
       </c>
       <c r="P66">
-        <v>861.853788356297</v>
+        <v>852.826404072547</v>
       </c>
     </row>
     <row r="67">
@@ -3829,46 +3829,46 @@
         <v>19892.3173687043</v>
       </c>
       <c r="C67">
-        <v>469.922260417411</v>
+        <v>466.03166765364</v>
       </c>
       <c r="D67">
-        <v>125.236005832513</v>
+        <v>124.19914859229</v>
       </c>
       <c r="E67">
-        <v>268.85527857622</v>
+        <v>266.629364867853</v>
       </c>
       <c r="F67">
-        <v>85.02260946427479</v>
+        <v>99.13143052779149</v>
       </c>
       <c r="G67">
-        <v>54.000846551634</v>
+        <v>167.497934340061</v>
       </c>
       <c r="H67">
-        <v>186.130577475845</v>
+        <v>184.589560293129</v>
       </c>
       <c r="I67">
-        <v>93.0652887379224</v>
+        <v>92.29478014656451</v>
       </c>
       <c r="J67">
-        <v>415.921413865777</v>
+        <v>412.477906334029</v>
       </c>
       <c r="K67">
-        <v>224.046065480184</v>
+        <v>222.191137389877</v>
       </c>
       <c r="L67">
-        <v>243.578286573328</v>
+        <v>241.561646803354</v>
       </c>
       <c r="M67">
-        <v>313.664491672257</v>
+        <v>311.067592345828</v>
       </c>
       <c r="N67">
-        <v>187.279531657795</v>
+        <v>185.729002023333</v>
       </c>
       <c r="O67">
-        <v>30010.6832325251</v>
+        <v>29908.0665344077</v>
       </c>
       <c r="P67">
-        <v>490.603435692505</v>
+        <v>486.541618797321</v>
       </c>
     </row>
     <row r="68">
@@ -3881,46 +3881,46 @@
         <v>3484.67747124781</v>
       </c>
       <c r="C68">
-        <v>113.314160263953</v>
+        <v>112.371924508416</v>
       </c>
       <c r="D68">
-        <v>29.5826821589724</v>
+        <v>29.3366947130086</v>
       </c>
       <c r="E68">
-        <v>33.7810977492196</v>
+        <v>33.5001994211866</v>
       </c>
       <c r="F68">
-        <v>10.4422131347173</v>
+        <v>13.5580794343235</v>
       </c>
       <c r="G68">
-        <v>12.7674894616235</v>
+        <v>22.941978507371</v>
       </c>
       <c r="H68">
-        <v>14.5545073795236</v>
+        <v>14.4334829883506</v>
       </c>
       <c r="I68">
-        <v>18.0854825426032</v>
+        <v>17.9350972044594</v>
       </c>
       <c r="J68">
-        <v>53.1584004734374</v>
+        <v>52.7163749973931</v>
       </c>
       <c r="K68">
-        <v>13.8655366159958</v>
+        <v>13.7502411900855</v>
       </c>
       <c r="L68">
-        <v>10.5498648165186</v>
+        <v>10.4621400359346</v>
       </c>
       <c r="M68">
-        <v>7.09424583069972</v>
+        <v>7.03525539151115</v>
       </c>
       <c r="N68">
-        <v>26.3746620412964</v>
+        <v>26.1553500898366</v>
       </c>
       <c r="O68">
-        <v>2943.54146582684</v>
+        <v>2937.28851770104</v>
       </c>
       <c r="P68">
-        <v>525.96458694435</v>
+        <v>521.591059056831</v>
       </c>
     </row>
     <row r="69">
@@ -3933,46 +3933,46 @@
         <v>3539.09210807772</v>
       </c>
       <c r="C69">
-        <v>143.578230034772</v>
+        <v>141.830667147048</v>
       </c>
       <c r="D69">
-        <v>63.5280727843212</v>
+        <v>62.7548406425151</v>
       </c>
       <c r="E69">
-        <v>65.2987234005321</v>
+        <v>64.5039397790673</v>
       </c>
       <c r="F69">
-        <v>7.50133740786618</v>
+        <v>16.4509864735181</v>
       </c>
       <c r="G69">
-        <v>24.6096507942276</v>
+        <v>42.6992917592104</v>
       </c>
       <c r="H69">
-        <v>55.2371209124691</v>
+        <v>54.5648021179834</v>
       </c>
       <c r="I69">
-        <v>29.7780363766809</v>
+        <v>29.4155929113409</v>
       </c>
       <c r="J69">
-        <v>108.847157474907</v>
+        <v>107.522323948324</v>
       </c>
       <c r="K69">
-        <v>70.4671089829853</v>
+        <v>69.6094183398143</v>
       </c>
       <c r="L69">
-        <v>154.573013253</v>
+        <v>152.691627326044</v>
       </c>
       <c r="M69">
-        <v>138.21842276408</v>
+        <v>136.536096787755</v>
       </c>
       <c r="N69">
-        <v>58.7305667228311</v>
+        <v>58.0157274414513</v>
       </c>
       <c r="O69">
-        <v>3207.25842258909</v>
+        <v>3195.08412003488</v>
       </c>
       <c r="P69">
-        <v>333.037845969331</v>
+        <v>328.984274758134</v>
       </c>
     </row>
     <row r="70">
@@ -3985,46 +3985,46 @@
         <v>63564.9839953689</v>
       </c>
       <c r="C70">
-        <v>2022.33013533911</v>
+        <v>2014.67453291176</v>
       </c>
       <c r="D70">
-        <v>3015.11586765206</v>
+        <v>3003.70203963665</v>
       </c>
       <c r="E70">
-        <v>2598.11620690855</v>
+        <v>2588.28094589326</v>
       </c>
       <c r="F70">
-        <v>1082.17492637467</v>
+        <v>1284.50739753466</v>
       </c>
       <c r="G70">
-        <v>100.592446349566</v>
+        <v>364.649752684956</v>
       </c>
       <c r="H70">
-        <v>1539.00811589235</v>
+        <v>1533.18214610539</v>
       </c>
       <c r="I70">
-        <v>1282.85299976973</v>
+        <v>1277.99671425662</v>
       </c>
       <c r="J70">
-        <v>2321.15218556906</v>
+        <v>2312.36538167607</v>
       </c>
       <c r="K70">
-        <v>101.744939561577</v>
+        <v>101.359780485585</v>
       </c>
       <c r="L70">
-        <v>193.883454779664</v>
+        <v>193.14950208762</v>
       </c>
       <c r="M70">
-        <v>456.109602748695</v>
+        <v>454.382983676505</v>
       </c>
       <c r="N70">
-        <v>646.148327830458</v>
+        <v>643.702310426807</v>
       </c>
       <c r="O70">
-        <v>68508.8319514671</v>
+        <v>68249.4893391915</v>
       </c>
       <c r="P70">
-        <v>40517.8258615871</v>
+        <v>40364.4441952624</v>
       </c>
     </row>
     <row r="71">
@@ -4037,46 +4037,46 @@
         <v>463234.00183944</v>
       </c>
       <c r="C71">
-        <v>10253.4208817311</v>
+        <v>10216.2827102441</v>
       </c>
       <c r="D71">
-        <v>16143.7490293805</v>
+        <v>16085.2759278847</v>
       </c>
       <c r="E71">
-        <v>8491.25437793615</v>
+        <v>8460.49882182806</v>
       </c>
       <c r="F71">
-        <v>2019.26397445861</v>
+        <v>2195.1076576435</v>
       </c>
       <c r="G71">
-        <v>225.136711546282</v>
+        <v>1746.75417037084</v>
       </c>
       <c r="H71">
-        <v>1054.4105495223</v>
+        <v>1050.5914456098</v>
       </c>
       <c r="I71">
-        <v>4516.49407029778</v>
+        <v>4500.1352049749</v>
       </c>
       <c r="J71">
-        <v>3148.81359867528</v>
+        <v>3137.4085095097</v>
       </c>
       <c r="K71">
-        <v>1850.84748686172</v>
+        <v>1844.14366653129</v>
       </c>
       <c r="L71">
-        <v>1680.36139102068</v>
+        <v>1674.27507600252</v>
       </c>
       <c r="M71">
-        <v>1708.1512747545</v>
+        <v>1701.96430401572</v>
       </c>
       <c r="N71">
-        <v>11238.2164656504</v>
+        <v>11197.5113375645</v>
       </c>
       <c r="O71">
-        <v>191362.981497053</v>
+        <v>190669.859532678</v>
       </c>
       <c r="P71">
-        <v>217200.746091938</v>
+        <v>216414.039035969</v>
       </c>
     </row>
     <row r="72">
@@ -4089,46 +4089,46 @@
         <v>1342.25179883313</v>
       </c>
       <c r="C72">
-        <v>66.6628354339946</v>
+        <v>66.2392710163214</v>
       </c>
       <c r="D72">
-        <v>8.12173889229368</v>
+        <v>8.07013473261441</v>
       </c>
       <c r="E72">
-        <v>20.3043472307342</v>
+        <v>20.175336831536</v>
       </c>
       <c r="F72">
-        <v>7.46355515943196</v>
+        <v>7.52718988821834</v>
       </c>
       <c r="G72">
-        <v>38.8328402388415</v>
+        <v>41.7573943962801</v>
       </c>
       <c r="H72">
-        <v>5.19095849690942</v>
+        <v>5.15797602176273</v>
       </c>
       <c r="I72">
-        <v>7.2772767444711</v>
+        <v>7.23103815491139</v>
       </c>
       <c r="J72">
-        <v>19.248769545956</v>
+        <v>19.1264661094073</v>
       </c>
       <c r="K72">
-        <v>35.8896412824598</v>
+        <v>35.6616045523787</v>
       </c>
       <c r="L72">
-        <v>34.1386241818277</v>
+        <v>33.9217131192003</v>
       </c>
       <c r="M72">
-        <v>3.72556829921728</v>
+        <v>3.70189666633689</v>
       </c>
       <c r="N72">
-        <v>13.8715326340857</v>
+        <v>13.7833952543277</v>
       </c>
       <c r="O72">
-        <v>1831.31551604125</v>
+        <v>1830.55088253693</v>
       </c>
       <c r="P72">
-        <v>135.523756164527</v>
+        <v>134.662661065782</v>
       </c>
     </row>
     <row r="73">
@@ -4141,46 +4141,46 @@
         <v>23825.7419305625</v>
       </c>
       <c r="C73">
-        <v>461.232523861126</v>
+        <v>455.354111459705</v>
       </c>
       <c r="D73">
-        <v>526.043909710167</v>
+        <v>519.339475650214</v>
       </c>
       <c r="E73">
-        <v>298.030309731022</v>
+        <v>294.231910923288</v>
       </c>
       <c r="F73">
-        <v>24.2915115465696</v>
+        <v>41.917970871263</v>
       </c>
       <c r="G73">
-        <v>64.1989948016483</v>
+        <v>178.755962321203</v>
       </c>
       <c r="H73">
-        <v>186.779269454716</v>
+        <v>184.398766092335</v>
       </c>
       <c r="I73">
-        <v>194.638287896253</v>
+        <v>192.15762127764</v>
       </c>
       <c r="J73">
-        <v>699.554706471379</v>
+        <v>690.638875845279</v>
       </c>
       <c r="K73">
-        <v>476.74643039507</v>
+        <v>470.670293124205</v>
       </c>
       <c r="L73">
-        <v>276.596623072284</v>
+        <v>273.071396781545</v>
       </c>
       <c r="M73">
-        <v>249.243156288752</v>
+        <v>246.066550162558</v>
       </c>
       <c r="N73">
-        <v>280.373034531205</v>
+        <v>276.799677844614</v>
       </c>
       <c r="O73">
-        <v>18487.5753949071</v>
+        <v>18413.6778774389</v>
       </c>
       <c r="P73">
-        <v>923.996025340734</v>
+        <v>912.219688215249</v>
       </c>
     </row>
     <row r="74">
@@ -4193,46 +4193,46 @@
         <v>42868.6154146028</v>
       </c>
       <c r="C74">
-        <v>1562.95969494942</v>
+        <v>1549.42756950218</v>
       </c>
       <c r="D74">
-        <v>674.085720697625</v>
+        <v>668.249477725939</v>
       </c>
       <c r="E74">
-        <v>963.278362519829</v>
+        <v>954.938285879109</v>
       </c>
       <c r="F74">
-        <v>44.3304803731593</v>
+        <v>71.5733688992183</v>
       </c>
       <c r="G74">
-        <v>154.588870706991</v>
+        <v>479.366852811089</v>
       </c>
       <c r="H74">
-        <v>666.790700972782</v>
+        <v>661.017618377129</v>
       </c>
       <c r="I74">
-        <v>387.225055805997</v>
+        <v>383.872456216631</v>
       </c>
       <c r="J74">
-        <v>1698.91566890399</v>
+        <v>1684.20643485899</v>
       </c>
       <c r="K74">
-        <v>1013.34882935258</v>
+        <v>1004.57524195622</v>
       </c>
       <c r="L74">
-        <v>1910.49186774739</v>
+        <v>1893.95080421015</v>
       </c>
       <c r="M74">
-        <v>1275.05622956304</v>
+        <v>1264.01677607841</v>
       </c>
       <c r="N74">
-        <v>427.80260033265</v>
+        <v>424.09867983293</v>
       </c>
       <c r="O74">
-        <v>51398.157777393</v>
+        <v>51166.7018694361</v>
       </c>
       <c r="P74">
-        <v>3345.29138189149</v>
+        <v>3316.32780542588</v>
       </c>
     </row>
     <row r="75">
@@ -4245,46 +4245,46 @@
         <v>15933.4390413362</v>
       </c>
       <c r="C75">
-        <v>404.691276605022</v>
+        <v>399.833052202318</v>
       </c>
       <c r="D75">
-        <v>491.875133794632</v>
+        <v>485.970287517413</v>
       </c>
       <c r="E75">
-        <v>232.994370899435</v>
+        <v>230.197327810461</v>
       </c>
       <c r="F75">
-        <v>17.2916815613274</v>
+        <v>30.8566902464517</v>
       </c>
       <c r="G75">
-        <v>78.2498818696065</v>
+        <v>300.655418247245</v>
       </c>
       <c r="H75">
-        <v>96.80959601742509</v>
+        <v>95.64741939297861</v>
       </c>
       <c r="I75">
-        <v>54.1235768511094</v>
+        <v>53.4738359324873</v>
       </c>
       <c r="J75">
-        <v>490.389346086552</v>
+        <v>484.502336344286</v>
       </c>
       <c r="K75">
-        <v>506.977233470368</v>
+        <v>500.891090008311</v>
       </c>
       <c r="L75">
-        <v>896.754088846991</v>
+        <v>885.988765131073</v>
       </c>
       <c r="M75">
-        <v>772.574719259664</v>
+        <v>763.300139917341</v>
       </c>
       <c r="N75">
-        <v>193.533774279973</v>
+        <v>191.210446451308</v>
       </c>
       <c r="O75">
-        <v>20942.3485809027</v>
+        <v>20776.7319154949</v>
       </c>
       <c r="P75">
-        <v>1719.77220309621</v>
+        <v>1699.12673884439</v>
       </c>
     </row>
     <row r="76">
@@ -4297,46 +4297,46 @@
         <v>882.763416181253</v>
       </c>
       <c r="C76">
-        <v>49.1963708619782</v>
+        <v>48.5609333127941</v>
       </c>
       <c r="D76">
-        <v>34.2030843695085</v>
+        <v>33.7613053576526</v>
       </c>
       <c r="E76">
-        <v>35.0217155691721</v>
+        <v>34.5693628301472</v>
       </c>
       <c r="F76">
-        <v>4.44079390502471</v>
+        <v>6.82974603464645</v>
       </c>
       <c r="G76">
-        <v>0.740132317504118</v>
+        <v>6.57515258440841</v>
       </c>
       <c r="H76">
-        <v>9.49836474130284</v>
+        <v>9.37568053702681</v>
       </c>
       <c r="I76">
-        <v>7.35646667095002</v>
+        <v>7.26144797200659</v>
       </c>
       <c r="J76">
-        <v>15.8455600702018</v>
+        <v>15.6408932689715</v>
       </c>
       <c r="K76">
-        <v>8.713375919707561</v>
+        <v>8.60083090586757</v>
       </c>
       <c r="L76">
-        <v>7.13218415049422</v>
+        <v>7.04006236310395</v>
       </c>
       <c r="M76">
-        <v>3.22966829456342</v>
+        <v>3.18795276819802</v>
       </c>
       <c r="N76">
-        <v>34.8983601829214</v>
+        <v>34.4476007452508</v>
       </c>
       <c r="O76">
-        <v>1009.46198219346</v>
+        <v>1005.6330591598</v>
       </c>
       <c r="P76">
-        <v>135.175075078707</v>
+        <v>133.429106485621</v>
       </c>
     </row>
     <row r="77">
@@ -4349,46 +4349,46 @@
         <v>35252.3076191513</v>
       </c>
       <c r="C77">
-        <v>2141.54385879317</v>
+        <v>2129.74183798295</v>
       </c>
       <c r="D77">
-        <v>733.572155637866</v>
+        <v>729.52944887233</v>
       </c>
       <c r="E77">
-        <v>450.398076807524</v>
+        <v>447.915938767932</v>
       </c>
       <c r="F77">
-        <v>472.724642916762</v>
+        <v>523.782461585503</v>
       </c>
       <c r="G77">
-        <v>97.91373530984301</v>
+        <v>334.178876362729</v>
       </c>
       <c r="H77">
-        <v>302.573924644524</v>
+        <v>300.906443616469</v>
       </c>
       <c r="I77">
-        <v>481.881718524384</v>
+        <v>479.226074538043</v>
       </c>
       <c r="J77">
-        <v>562.918383851598</v>
+        <v>559.816147839297</v>
       </c>
       <c r="K77">
-        <v>212.901257051085</v>
+        <v>211.727960947005</v>
       </c>
       <c r="L77">
-        <v>763.1231708694841</v>
+        <v>758.917608837036</v>
       </c>
       <c r="M77">
-        <v>879.658896112113</v>
+        <v>874.81110718863</v>
       </c>
       <c r="N77">
-        <v>545.18837537354</v>
+        <v>542.183849211151</v>
       </c>
       <c r="O77">
-        <v>36052.8302335722</v>
+        <v>35863.3621616921</v>
       </c>
       <c r="P77">
-        <v>10682.5666182644</v>
+        <v>10623.6951302873</v>
       </c>
     </row>
     <row r="78">
@@ -4401,46 +4401,46 @@
         <v>4994.3744154744</v>
       </c>
       <c r="C78">
-        <v>137.000370861665</v>
+        <v>135.698149447186</v>
       </c>
       <c r="D78">
-        <v>18.3386323200653</v>
+        <v>18.1643192173399</v>
       </c>
       <c r="E78">
-        <v>57.1733831154978</v>
+        <v>56.6299363834714</v>
       </c>
       <c r="F78">
-        <v>10.787430776509</v>
+        <v>17.095829851614</v>
       </c>
       <c r="G78">
-        <v>12.9449169318108</v>
+        <v>59.835404480649</v>
       </c>
       <c r="H78">
-        <v>32.3622923295271</v>
+        <v>32.0546809717763</v>
       </c>
       <c r="I78">
-        <v>22.653604630669</v>
+        <v>22.4382766802434</v>
       </c>
       <c r="J78">
-        <v>114.346766230996</v>
+        <v>113.259872766943</v>
       </c>
       <c r="K78">
-        <v>85.2207031344213</v>
+        <v>84.4106598923442</v>
       </c>
       <c r="L78">
-        <v>49.6221815719415</v>
+        <v>49.1505108233903</v>
       </c>
       <c r="M78">
-        <v>39.9134938730834</v>
+        <v>39.5341065318574</v>
       </c>
       <c r="N78">
-        <v>157.496489337032</v>
+        <v>155.999447395978</v>
       </c>
       <c r="O78">
-        <v>7820.88731296904</v>
+        <v>7776.46560375292</v>
       </c>
       <c r="P78">
-        <v>209.276157064275</v>
+        <v>207.28693695082</v>
       </c>
     </row>
     <row r="79">
@@ -4453,46 +4453,46 @@
         <v>13381.5321505355</v>
       </c>
       <c r="C79">
-        <v>675.87446878458</v>
+        <v>665.184559624831</v>
       </c>
       <c r="D79">
-        <v>331.624739353706</v>
+        <v>326.379625797055</v>
       </c>
       <c r="E79">
-        <v>389.374693964114</v>
+        <v>383.216183323719</v>
       </c>
       <c r="F79">
-        <v>309.749756546734</v>
+        <v>338.435865272408</v>
       </c>
       <c r="G79">
-        <v>58.6249539226869</v>
+        <v>182.319866351766</v>
       </c>
       <c r="H79">
-        <v>217.499829052186</v>
+        <v>214.05976211341</v>
       </c>
       <c r="I79">
-        <v>224.624823452171</v>
+        <v>221.072064665401</v>
       </c>
       <c r="J79">
-        <v>525.874586679624</v>
+        <v>517.557137477652</v>
       </c>
       <c r="K79">
-        <v>167.624868252288</v>
+        <v>164.973644249472</v>
       </c>
       <c r="L79">
-        <v>285.874775311695</v>
+        <v>281.353262042165</v>
       </c>
       <c r="M79">
-        <v>370.999708406257</v>
+        <v>365.131824110689</v>
       </c>
       <c r="N79">
-        <v>364.874713220305</v>
+        <v>359.103704373013</v>
       </c>
       <c r="O79">
-        <v>11533.1159353448</v>
+        <v>11470.7737236876</v>
       </c>
       <c r="P79">
-        <v>2138.49831920965</v>
+        <v>2104.67494841161</v>
       </c>
     </row>
     <row r="80">
@@ -4505,46 +4505,46 @@
         <v>3424.13865118215</v>
       </c>
       <c r="C80">
-        <v>122.685611591903</v>
+        <v>121.463703984373</v>
       </c>
       <c r="D80">
-        <v>234.210648799728</v>
+        <v>231.877989168175</v>
       </c>
       <c r="E80">
-        <v>68.83122838113511</v>
+        <v>68.1456923960817</v>
       </c>
       <c r="F80">
-        <v>13.9391884611042</v>
+        <v>15.94632031446</v>
       </c>
       <c r="G80">
-        <v>7.11371321794981</v>
+        <v>21.2313212490305</v>
       </c>
       <c r="H80">
-        <v>27.1981353016914</v>
+        <v>26.9272509819693</v>
       </c>
       <c r="I80">
-        <v>47.0058489296294</v>
+        <v>46.5376864152136</v>
       </c>
       <c r="J80">
-        <v>98.81950727884571</v>
+        <v>97.8352980781937</v>
       </c>
       <c r="K80">
-        <v>24.2119898828113</v>
+        <v>23.970846571486</v>
       </c>
       <c r="L80">
-        <v>31.7522953034583</v>
+        <v>31.4360530751774</v>
       </c>
       <c r="M80">
-        <v>41.9905081681899</v>
+        <v>41.5722967682629</v>
       </c>
       <c r="N80">
-        <v>56.3447593129995</v>
+        <v>55.7835843785011</v>
       </c>
       <c r="O80">
-        <v>3466.58047526899</v>
+        <v>3463.83298833511</v>
       </c>
       <c r="P80">
-        <v>590.09231152008</v>
+        <v>584.2151897024891</v>
       </c>
     </row>
     <row r="81">
@@ -4557,46 +4557,46 @@
         <v>7306.1415409642</v>
       </c>
       <c r="C81">
-        <v>178.289414208607</v>
+        <v>176.511768764491</v>
       </c>
       <c r="D81">
-        <v>387.504466038964</v>
+        <v>383.640829200588</v>
       </c>
       <c r="E81">
-        <v>103.362198225712</v>
+        <v>102.331619144024</v>
       </c>
       <c r="F81">
-        <v>90.5975894086811</v>
+        <v>97.7082026164325</v>
       </c>
       <c r="G81">
-        <v>11.5192811275643</v>
+        <v>46.2341652759144</v>
       </c>
       <c r="H81">
-        <v>46.3884564326237</v>
+        <v>45.9259375074083</v>
       </c>
       <c r="I81">
-        <v>62.785271010598</v>
+        <v>62.1592666487294</v>
       </c>
       <c r="J81">
-        <v>186.59159880505</v>
+        <v>184.731175924654</v>
       </c>
       <c r="K81">
-        <v>83.2294005793382</v>
+        <v>82.3995567806297</v>
       </c>
       <c r="L81">
-        <v>127.542310862851</v>
+        <v>126.270642497997</v>
       </c>
       <c r="M81">
-        <v>202.365749538291</v>
+        <v>200.348049528963</v>
       </c>
       <c r="N81">
-        <v>114.362592815998</v>
+        <v>113.222333631239</v>
       </c>
       <c r="O81">
-        <v>4259.12447528257</v>
+        <v>4258.37210709072</v>
       </c>
       <c r="P81">
-        <v>2627.01876092939</v>
+        <v>2600.82591065444</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>126785.314613182</v>
+        <v>126788.462680891</v>
       </c>
       <c r="C82">
-        <v>6386.38342383356</v>
+        <v>6318.11948081414</v>
       </c>
       <c r="D82">
-        <v>5405.62383898497</v>
+        <v>5344.69837541225</v>
       </c>
       <c r="E82">
-        <v>1992.84176415547</v>
+        <v>1971.06999072167</v>
       </c>
       <c r="F82">
-        <v>1463.94186006343</v>
+        <v>2398.29614979013</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1422.19173507862</v>
       </c>
       <c r="H82">
-        <v>1028.24890235736</v>
+        <v>1017.03946174775</v>
       </c>
       <c r="I82">
-        <v>1305.16403529501</v>
+        <v>1291.22415300615</v>
       </c>
       <c r="J82">
-        <v>3109.215741785</v>
+        <v>3074.99486995541</v>
       </c>
       <c r="K82">
-        <v>1185.38507368943</v>
+        <v>1172.54003613876</v>
       </c>
       <c r="L82">
-        <v>2890.8845864248</v>
+        <v>2859.94100692166</v>
       </c>
       <c r="M82">
-        <v>1004.01381176172</v>
+        <v>993.618975724479</v>
       </c>
       <c r="N82">
-        <v>1054.24986838975</v>
+        <v>1043.23035161768</v>
       </c>
       <c r="O82">
-        <v>129012.57282167</v>
+        <v>128443.864594848</v>
       </c>
       <c r="P82">
-        <v>25992.0485227354</v>
+        <v>25722.7345543909</v>
       </c>
     </row>
     <row r="83">
@@ -4661,46 +4661,46 @@
         <v>42378.9814412004</v>
       </c>
       <c r="C83">
-        <v>1343.09153371083</v>
+        <v>1328.94320513785</v>
       </c>
       <c r="D83">
-        <v>681.465103963586</v>
+        <v>674.286447885504</v>
       </c>
       <c r="E83">
-        <v>904.953906139468</v>
+        <v>895.420985347329</v>
       </c>
       <c r="F83">
-        <v>1059.42329206788</v>
+        <v>1261.58579420739</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>539.355232473117</v>
       </c>
       <c r="H83">
-        <v>257.037393032478</v>
+        <v>254.329722407739</v>
       </c>
       <c r="I83">
-        <v>717.0028988755259</v>
+        <v>709.4498823115411</v>
       </c>
       <c r="J83">
-        <v>1523.75437356526</v>
+        <v>1507.7029154177</v>
       </c>
       <c r="K83">
-        <v>1453.42695885952</v>
+        <v>1438.11634029434</v>
       </c>
       <c r="L83">
-        <v>764.385927825602</v>
+        <v>756.333771295694</v>
       </c>
       <c r="M83">
-        <v>855.832808838036</v>
+        <v>846.8173370857001</v>
       </c>
       <c r="N83">
-        <v>170.766000319745</v>
+        <v>168.96712554392</v>
       </c>
       <c r="O83">
-        <v>49343.0081342673</v>
+        <v>48823.2214523173</v>
       </c>
       <c r="P83">
-        <v>12377.0662112702</v>
+        <v>12246.6843310102</v>
       </c>
     </row>
     <row r="84">
@@ -4713,46 +4713,46 @@
         <v>1721.2516648407</v>
       </c>
       <c r="C84">
-        <v>54.1815394620119</v>
+        <v>53.5401599387422</v>
       </c>
       <c r="D84">
-        <v>48.8829887242125</v>
+        <v>48.3043313380392</v>
       </c>
       <c r="E84">
-        <v>53.9629099412775</v>
+        <v>53.324118467354</v>
       </c>
       <c r="F84">
-        <v>9.01525259028492</v>
+        <v>12.3143638691292</v>
       </c>
       <c r="G84">
-        <v>2.80360208941813</v>
+        <v>14.2714454334696</v>
       </c>
       <c r="H84">
-        <v>39.8548755738844</v>
+        <v>39.3830894018899</v>
       </c>
       <c r="I84">
-        <v>23.3676375984989</v>
+        <v>23.091020794848</v>
       </c>
       <c r="J84">
-        <v>123.229886333966</v>
+        <v>121.771139931884</v>
       </c>
       <c r="K84">
-        <v>54.2715633823143</v>
+        <v>53.6291181916668</v>
       </c>
       <c r="L84">
-        <v>58.95280723804</v>
+        <v>58.2549473437442</v>
       </c>
       <c r="M84">
-        <v>86.011425568938</v>
+        <v>84.9932565084994</v>
       </c>
       <c r="N84">
-        <v>31.5212326658892</v>
+        <v>31.1480968454444</v>
       </c>
       <c r="O84">
-        <v>1909.1501384134</v>
+        <v>1902.28328053891</v>
       </c>
       <c r="P84">
-        <v>93.1361758328721</v>
+        <v>92.0336668113864</v>
       </c>
     </row>
     <row r="85">
@@ -4765,46 +4765,46 @@
         <v>725.0485168943091</v>
       </c>
       <c r="C85">
-        <v>17.6138648900913</v>
+        <v>17.3620665486055</v>
       </c>
       <c r="D85">
-        <v>11.6255895289519</v>
+        <v>11.4593963521306</v>
       </c>
       <c r="E85">
-        <v>19.1383525736048</v>
+        <v>18.8647609759132</v>
       </c>
       <c r="F85">
-        <v>2.85155969578065</v>
+        <v>2.84322758548147</v>
       </c>
       <c r="G85">
-        <v>8.061139909226069</v>
+        <v>15.0485657756282</v>
       </c>
       <c r="H85">
-        <v>14.8390779553509</v>
+        <v>14.62694647588</v>
       </c>
       <c r="I85">
-        <v>7.73211379048215</v>
+        <v>7.62157964929443</v>
       </c>
       <c r="J85">
-        <v>42.4224342433829</v>
+        <v>41.8159859340012</v>
       </c>
       <c r="K85">
-        <v>14.345538777235</v>
+        <v>14.1404626684782</v>
       </c>
       <c r="L85">
-        <v>26.6291805436747</v>
+        <v>26.2485040971445</v>
       </c>
       <c r="M85">
-        <v>16.0126044455375</v>
+        <v>15.7836968623686</v>
       </c>
       <c r="N85">
-        <v>10.2436798302274</v>
+        <v>10.0972416914057</v>
       </c>
       <c r="O85">
-        <v>662.888921433378</v>
+        <v>659.866636359764</v>
       </c>
       <c r="P85">
-        <v>96.1853020461397</v>
+        <v>94.8102886869676</v>
       </c>
     </row>
     <row r="86">
@@ -4817,46 +4817,46 @@
         <v>2764.95835258109</v>
       </c>
       <c r="C86">
-        <v>60.3591057795127</v>
+        <v>59.7495546663892</v>
       </c>
       <c r="D86">
-        <v>8.942089745112989</v>
+        <v>8.85178587650211</v>
       </c>
       <c r="E86">
-        <v>81.596568924156</v>
+        <v>80.7725461230817</v>
       </c>
       <c r="F86">
-        <v>10.0598509632521</v>
+        <v>13.2776788147532</v>
       </c>
       <c r="G86">
-        <v>12.2953733995304</v>
+        <v>34.3006702714457</v>
       </c>
       <c r="H86">
-        <v>23.4729855809216</v>
+        <v>23.235937925818</v>
       </c>
       <c r="I86">
-        <v>20.1197019265042</v>
+        <v>19.9165182221297</v>
       </c>
       <c r="J86">
-        <v>117.364927904608</v>
+        <v>116.17968962909</v>
       </c>
       <c r="K86">
-        <v>86.06761379671249</v>
+        <v>85.19843906133271</v>
       </c>
       <c r="L86">
-        <v>77.1255240515995</v>
+        <v>76.3466531848306</v>
       </c>
       <c r="M86">
-        <v>84.9498525785734</v>
+        <v>84.09196582676999</v>
       </c>
       <c r="N86">
-        <v>31.2973141078955</v>
+        <v>30.9812505677574</v>
       </c>
       <c r="O86">
-        <v>4196.07561289427</v>
+        <v>4178.04293370899</v>
       </c>
       <c r="P86">
-        <v>120.718211559025</v>
+        <v>119.499109332778</v>
       </c>
     </row>
     <row r="87">
@@ -4869,46 +4869,46 @@
         <v>26693.0050467308</v>
       </c>
       <c r="C87">
-        <v>672.462123123758</v>
+        <v>668.179295674427</v>
       </c>
       <c r="D87">
-        <v>1598.50508837022</v>
+        <v>1588.32440869332</v>
       </c>
       <c r="E87">
-        <v>355.438069666817</v>
+        <v>353.174328901411</v>
       </c>
       <c r="F87">
-        <v>160.329370584821</v>
+        <v>171.68809540446</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>160.664596827865</v>
       </c>
       <c r="H87">
-        <v>283.150292358358</v>
+        <v>281.346943436986</v>
       </c>
       <c r="I87">
-        <v>351.844457268609</v>
+        <v>349.603603772674</v>
       </c>
       <c r="J87">
-        <v>648.178970339373</v>
+        <v>644.050799263576</v>
       </c>
       <c r="K87">
-        <v>450.995490255541</v>
+        <v>448.12315618828</v>
       </c>
       <c r="L87">
-        <v>246.152896878558</v>
+        <v>244.585179757797</v>
       </c>
       <c r="M87">
-        <v>383.304327210819</v>
+        <v>380.863109724249</v>
       </c>
       <c r="N87">
-        <v>370.228048603941</v>
+        <v>367.870112306046</v>
       </c>
       <c r="O87">
-        <v>16010.7067161825</v>
+        <v>15917.8095034705</v>
       </c>
       <c r="P87">
-        <v>7063.61484650909</v>
+        <v>7018.62756393084</v>
       </c>
     </row>
     <row r="88">
@@ -4921,46 +4921,46 @@
         <v>8254.61417147708</v>
       </c>
       <c r="C88">
-        <v>124.086248451653</v>
+        <v>120.528061852443</v>
       </c>
       <c r="D88">
-        <v>171.159589924206</v>
+        <v>166.251570165419</v>
       </c>
       <c r="E88">
-        <v>110.567779967663</v>
+        <v>107.397236914791</v>
       </c>
       <c r="F88">
-        <v>6.37693838788689</v>
+        <v>26.8623821592289</v>
       </c>
       <c r="G88">
-        <v>22.1218876718283</v>
+        <v>118.75636850524</v>
       </c>
       <c r="H88">
-        <v>136.702332086382</v>
+        <v>132.782377924016</v>
       </c>
       <c r="I88">
-        <v>81.6126342966738</v>
+        <v>79.2723831785675</v>
       </c>
       <c r="J88">
-        <v>394.032625233357</v>
+        <v>382.733697074505</v>
       </c>
       <c r="K88">
-        <v>258.881267106642</v>
+        <v>251.457818764064</v>
       </c>
       <c r="L88">
-        <v>742.43008484767</v>
+        <v>721.14082184135</v>
       </c>
       <c r="M88">
-        <v>136.490835637336</v>
+        <v>132.576946158528</v>
       </c>
       <c r="N88">
-        <v>22.7570179172952</v>
+        <v>22.1044579664411</v>
       </c>
       <c r="O88">
-        <v>8757.97310202104</v>
+        <v>8725.32640880365</v>
       </c>
       <c r="P88">
-        <v>767.1527379444281</v>
+        <v>745.15455018582</v>
       </c>
     </row>
   </sheetData>
